--- a/5. Registro de Riscos.xlsx
+++ b/5. Registro de Riscos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Gestão de projetos Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\GESTÃO DE PROJETOS VERSÃO FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucoes" sheetId="8" r:id="rId1"/>
@@ -29,13 +29,13 @@
     <definedName name="Status">Param!$K$5:$K$8</definedName>
     <definedName name="Urgencia">Param!$J$5:$J$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <webPublishing codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="147">
   <si>
     <t>Quem Identificou</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Para o andamento do projeto até que o problema seja resolvido</t>
   </si>
   <si>
-    <t>Arquiteto</t>
-  </si>
-  <si>
     <t>hoje</t>
   </si>
   <si>
@@ -457,15 +454,6 @@
     <t>Definir o escopo do projeto e criar um documento assinado pelo cliente mostrando que está ciente sobre o planejamento do escopo</t>
   </si>
   <si>
-    <t>Alteração de membros da equipe</t>
-  </si>
-  <si>
-    <t>Demora para retomada do desenvolvimento do projeto, atraso cronograma</t>
-  </si>
-  <si>
-    <t>contratar outro funcionário para assumir a posição no projeto</t>
-  </si>
-  <si>
     <t>Arquiteto de Software</t>
   </si>
   <si>
@@ -485,6 +473,12 @@
   </si>
   <si>
     <t>Gerente de Projeto, Arquiteto de Software, Desenvolvedor</t>
+  </si>
+  <si>
+    <t>Arquiteto de software</t>
+  </si>
+  <si>
+    <t>Gerente do Projeto</t>
   </si>
 </sst>
 </file>
@@ -495,7 +489,7 @@
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -683,12 +677,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1D2021"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="41">
@@ -1612,7 +1600,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1800,9 +1788,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11350,8 +11335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11430,7 +11415,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>25</v>
@@ -11439,7 +11424,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>47</v>
@@ -11448,10 +11433,10 @@
         <v>39</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="15"/>
@@ -11466,7 +11451,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>25</v>
@@ -11475,7 +11460,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="90" t="s">
         <v>74</v>
@@ -11484,10 +11469,10 @@
         <v>40</v>
       </c>
       <c r="J4" s="91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="92" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="15"/>
@@ -11502,7 +11487,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>26</v>
@@ -11511,7 +11496,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>47</v>
@@ -11520,10 +11505,10 @@
         <v>40</v>
       </c>
       <c r="J5" s="95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="L5" s="31"/>
       <c r="M5" s="30"/>
@@ -11537,8 +11522,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D6" s="96" t="s">
-        <v>115</v>
+      <c r="D6" s="95" t="s">
+        <v>114</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>24</v>
@@ -11547,7 +11532,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>48</v>
@@ -11556,9 +11541,11 @@
         <v>40</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>146</v>
+      </c>
       <c r="L6" s="31"/>
       <c r="M6" s="30"/>
     </row>
@@ -11572,7 +11559,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>25</v>
@@ -11581,7 +11568,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>74</v>
@@ -11590,10 +11577,10 @@
         <v>40</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L7" s="31"/>
       <c r="M7" s="30"/>
@@ -11608,7 +11595,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>25</v>
@@ -11617,7 +11604,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>47</v>
@@ -11626,10 +11613,10 @@
         <v>40</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L8" s="31"/>
       <c r="M8" s="30"/>
@@ -11644,7 +11631,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>25</v>
@@ -11653,7 +11640,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>48</v>
@@ -11662,7 +11649,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="31"/>
@@ -11678,7 +11665,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>24</v>
@@ -11687,7 +11674,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="32" t="s">
         <v>74</v>
@@ -11696,10 +11683,10 @@
         <v>40</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="30"/>
@@ -11714,7 +11701,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>25</v>
@@ -11723,7 +11710,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="32" t="s">
         <v>48</v>
@@ -11732,47 +11719,31 @@
         <v>30</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="30"/>
     </row>
-    <row r="12" spans="2:15" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="30">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="86">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="31"/>
       <c r="M12" s="30"/>
     </row>
@@ -12132,7 +12103,7 @@
   <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12214,7 +12185,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>26</v>
@@ -12223,7 +12194,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>80</v>
@@ -12232,13 +12203,13 @@
         <v>42896</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>32</v>
@@ -12255,7 +12226,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>27</v>
@@ -12264,20 +12235,20 @@
         <v>21</v>
       </c>
       <c r="G4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="I4" s="83">
         <v>42896</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>13</v>
@@ -12294,7 +12265,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>25</v>
@@ -12312,11 +12283,11 @@
         <v>42896</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>31</v>
@@ -12333,7 +12304,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>26</v>
@@ -12345,16 +12316,16 @@
         <v>90</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I6" s="83">
         <v>42896</v>
       </c>
       <c r="J6" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="L6" s="31"/>
       <c r="M6" s="15" t="s">
@@ -12372,7 +12343,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>26</v>
@@ -12381,22 +12352,22 @@
         <v>22</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" s="83">
         <v>42896</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>31</v>
@@ -12919,7 +12890,7 @@
         <v>85</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H3" s="31">
         <v>43018</v>
@@ -12948,7 +12919,7 @@
         <v>87</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H4" s="31">
         <v>42987</v>
@@ -12977,7 +12948,7 @@
         <v>86</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H5" s="31">
         <v>43017</v>
@@ -13003,10 +12974,10 @@
         <v>Problemas do financiador do projeto</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H6" s="31">
         <v>42896</v>
@@ -13035,7 +13006,7 @@
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="15"/>
@@ -13058,7 +13029,7 @@
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="15"/>
@@ -13102,7 +13073,7 @@
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="15"/>
@@ -13140,13 +13111,13 @@
       <c r="D12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="15" t="str">
+      <c r="E12" s="15">
         <f>IF(B12="","",IF(B12=Param!$L$5,VLOOKUP(C12,Riscos!$B$3:$D$30,3,FALSE),VLOOKUP(C12,Issues!$B$3:$D$30,3,FALSE)))</f>
-        <v>Alteração de membros da equipe</v>
+        <v>0</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="15"/>
@@ -13169,7 +13140,7 @@
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="15"/>
@@ -13192,7 +13163,7 @@
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="15"/>
@@ -13215,7 +13186,7 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="15"/>
@@ -13238,7 +13209,7 @@
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="15"/>
@@ -13261,7 +13232,7 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="15"/>
@@ -13415,7 +13386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -13435,43 +13406,43 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
-      <c r="J2" s="108" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="J2" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="110"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="109"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="104"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
       <c r="I3" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="106"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="57">
@@ -13662,7 +13633,7 @@
       </c>
       <c r="M7" s="78">
         <f>COUNTIFS(Riscos!$C$3:$C$25,Grafico!F7,Riscos!$E$3:$E$25,Grafico!I7,Riscos!$F$3:$F$25,$M$9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="81">
         <f>COUNTIFS(Riscos!$C$3:$C$25,Grafico!G7,Riscos!$E$3:$E$25,Grafico!I7,Riscos!$F$3:$F$25,$N$9)</f>
@@ -13766,25 +13737,25 @@
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="110"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="109"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I13" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="97" t="s">
+      <c r="J13" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="99"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="98"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I14" s="70" t="s">
@@ -14012,23 +13983,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="111" t="s">
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="111" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
     </row>
     <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
